--- a/target/classes/templateExcel/炉身静压数据项.xlsx
+++ b/target/classes/templateExcel/炉身静压数据项.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>描述</t>
   </si>
@@ -40,58 +40,10 @@
     <t>angle</t>
   </si>
   <si>
-    <t>第一层炉身静压4_45°</t>
-  </si>
-  <si>
-    <t>RG5_BFP_001_004</t>
-  </si>
-  <si>
-    <t>第一层炉身静压3_135°</t>
-  </si>
-  <si>
-    <t>RG5_BFP_001_003</t>
-  </si>
-  <si>
-    <t>第一层炉身静压2_225°</t>
-  </si>
-  <si>
-    <t>RG5_BFP_001_002</t>
-  </si>
-  <si>
-    <t>第一层炉身静压1_315°</t>
-  </si>
-  <si>
-    <t>RG5_BFP_001_001</t>
-  </si>
-  <si>
-    <t>第二层炉身静压4_45°</t>
-  </si>
-  <si>
-    <t>RG5_BFP_002_004</t>
-  </si>
-  <si>
-    <t>第二层炉身静压3_135°</t>
-  </si>
-  <si>
-    <t>RG5_BFP_002_003</t>
-  </si>
-  <si>
-    <t>第二层炉身静压2_225°</t>
-  </si>
-  <si>
-    <t>RG5_BFP_002_002</t>
-  </si>
-  <si>
-    <t>第二层炉身静压1_315°</t>
-  </si>
-  <si>
-    <t>RG5_BFP_002_001</t>
-  </si>
-  <si>
     <t>热风压力</t>
   </si>
   <si>
-    <t>RG5_HSP_000_BLA</t>
+    <t>RG1_RFL_HOT_P00</t>
   </si>
   <si>
     <r>
@@ -114,13 +66,13 @@
     </r>
   </si>
   <si>
-    <t>RG5_BFP_TOP_002</t>
+    <t>RG1_BFP_TOP_002</t>
   </si>
   <si>
     <t>炉顶压力1</t>
   </si>
   <si>
-    <t>RG5_BFP_TOP_001</t>
+    <t>RG1_BFP_TOP_001</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1080,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1176,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>27.65</v>
+        <v>10.5</v>
       </c>
       <c r="D3" s="1">
         <v>45</v>
@@ -1184,13 +1136,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>27.65</v>
+        <v>10.5</v>
       </c>
       <c r="D4" s="1">
         <v>135</v>
@@ -1198,13 +1150,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>27.65</v>
+        <v>10.5</v>
       </c>
       <c r="D5" s="1">
         <v>225</v>
@@ -1212,189 +1164,77 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>27.65</v>
+        <v>10.5</v>
       </c>
       <c r="D6" s="1">
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="17.5" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>33.095</v>
+        <v>38.23</v>
       </c>
       <c r="D7" s="1">
         <v>45</v>
       </c>
+      <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>33.095</v>
+        <v>38.23</v>
       </c>
       <c r="D8" s="1">
         <v>135</v>
       </c>
+      <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
-        <v>33.095</v>
+        <v>38.23</v>
       </c>
       <c r="D9" s="1">
         <v>225</v>
       </c>
+      <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="17.5" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>33.095</v>
+        <v>38.23</v>
       </c>
       <c r="D10" s="1">
         <v>315</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="D12" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" ht="17.5" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1">
-        <v>38.23</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="1">
-        <v>38.23</v>
-      </c>
-      <c r="D16" s="1">
-        <v>135</v>
-      </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1">
-        <v>38.23</v>
-      </c>
-      <c r="D17" s="1">
-        <v>225</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" ht="17.5" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1">
-        <v>38.23</v>
-      </c>
-      <c r="D18" s="1">
-        <v>315</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
